--- a/coordinates data.xlsx
+++ b/coordinates data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,82 +447,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>580</v>
+        <v>864</v>
       </c>
       <c r="B2" t="n">
-        <v>428</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>272</v>
+        <v>776</v>
       </c>
       <c r="B3" t="n">
-        <v>248</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>694</v>
+        <v>430</v>
       </c>
       <c r="B4" t="n">
-        <v>268</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>878</v>
+        <v>265</v>
       </c>
       <c r="B5" t="n">
-        <v>39</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>384</v>
+        <v>523</v>
       </c>
       <c r="B6" t="n">
-        <v>307</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>683</v>
+        <v>414</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>555</v>
+        <v>488</v>
       </c>
       <c r="B8" t="n">
-        <v>114</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>597</v>
       </c>
       <c r="B9" t="n">
-        <v>175</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>817</v>
+        <v>929</v>
       </c>
       <c r="B10" t="n">
-        <v>442</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>240</v>
+        <v>516</v>
       </c>
       <c r="B11" t="n">
-        <v>38</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>288</v>
+      </c>
+      <c r="B12" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>773</v>
+      </c>
+      <c r="B13" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>545</v>
+      </c>
+      <c r="B14" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>829</v>
+      </c>
+      <c r="B15" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>920</v>
+      </c>
+      <c r="B16" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>700</v>
+      </c>
+      <c r="B17" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>103</v>
+      </c>
+      <c r="B18" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>625</v>
+      </c>
+      <c r="B19" t="n">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>989</v>
+      </c>
+      <c r="B20" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>886</v>
+      </c>
+      <c r="B21" t="n">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/coordinates data.xlsx
+++ b/coordinates data.xlsx
@@ -447,162 +447,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>864</v>
+        <v>403</v>
       </c>
       <c r="B2" t="n">
-        <v>197</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>776</v>
+        <v>807</v>
       </c>
       <c r="B3" t="n">
-        <v>455</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>430</v>
+        <v>616</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>265</v>
+        <v>674</v>
       </c>
       <c r="B5" t="n">
-        <v>494</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="B6" t="n">
-        <v>248</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>414</v>
+        <v>145</v>
       </c>
       <c r="B7" t="n">
-        <v>470</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>488</v>
+        <v>964</v>
       </c>
       <c r="B8" t="n">
-        <v>183</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>597</v>
+        <v>477</v>
       </c>
       <c r="B9" t="n">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>929</v>
+        <v>1002</v>
       </c>
       <c r="B10" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>516</v>
+        <v>151</v>
       </c>
       <c r="B11" t="n">
-        <v>71</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>288</v>
+        <v>782</v>
       </c>
       <c r="B12" t="n">
-        <v>71</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>773</v>
+        <v>263</v>
       </c>
       <c r="B13" t="n">
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>545</v>
+        <v>201</v>
       </c>
       <c r="B14" t="n">
-        <v>361</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>829</v>
+        <v>459</v>
       </c>
       <c r="B15" t="n">
-        <v>308</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>920</v>
+        <v>838</v>
       </c>
       <c r="B16" t="n">
-        <v>435</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>700</v>
+        <v>875</v>
       </c>
       <c r="B17" t="n">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>103</v>
+        <v>589</v>
       </c>
       <c r="B18" t="n">
-        <v>181</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>625</v>
+        <v>699</v>
       </c>
       <c r="B19" t="n">
-        <v>327</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>989</v>
+        <v>520</v>
       </c>
       <c r="B20" t="n">
-        <v>282</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>886</v>
+        <v>298</v>
       </c>
       <c r="B21" t="n">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/coordinates data.xlsx
+++ b/coordinates data.xlsx
@@ -447,162 +447,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>403</v>
+        <v>488</v>
       </c>
       <c r="B2" t="n">
-        <v>366</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>807</v>
+        <v>650</v>
       </c>
       <c r="B3" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>616</v>
+        <v>77</v>
       </c>
       <c r="B4" t="n">
-        <v>84</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>674</v>
+        <v>386</v>
       </c>
       <c r="B5" t="n">
-        <v>456</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>580</v>
+        <v>360</v>
       </c>
       <c r="B6" t="n">
-        <v>318</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>145</v>
+        <v>992</v>
       </c>
       <c r="B7" t="n">
-        <v>302</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>964</v>
+        <v>651</v>
       </c>
       <c r="B8" t="n">
-        <v>322</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>477</v>
+        <v>755</v>
       </c>
       <c r="B9" t="n">
-        <v>447</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1002</v>
+        <v>156</v>
       </c>
       <c r="B10" t="n">
-        <v>116</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="B11" t="n">
-        <v>214</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>782</v>
+        <v>310</v>
       </c>
       <c r="B12" t="n">
-        <v>199</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>263</v>
+        <v>821</v>
       </c>
       <c r="B13" t="n">
-        <v>88</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>459</v>
+        <v>862</v>
       </c>
       <c r="B15" t="n">
-        <v>158</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="B16" t="n">
-        <v>288</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>875</v>
+        <v>886</v>
       </c>
       <c r="B17" t="n">
-        <v>153</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>589</v>
+        <v>317</v>
       </c>
       <c r="B18" t="n">
-        <v>462</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>699</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>14</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>520</v>
+        <v>883</v>
       </c>
       <c r="B20" t="n">
-        <v>211</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>298</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/coordinates data.xlsx
+++ b/coordinates data.xlsx
@@ -447,162 +447,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>488</v>
+        <v>940</v>
       </c>
       <c r="B2" t="n">
-        <v>74</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>650</v>
+        <v>314</v>
       </c>
       <c r="B3" t="n">
-        <v>310</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="B4" t="n">
-        <v>526</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>386</v>
+        <v>47</v>
       </c>
       <c r="B5" t="n">
-        <v>579</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>360</v>
+        <v>51</v>
       </c>
       <c r="B6" t="n">
-        <v>289</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>992</v>
+        <v>831</v>
       </c>
       <c r="B7" t="n">
-        <v>452</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>651</v>
+        <v>716</v>
       </c>
       <c r="B8" t="n">
-        <v>520</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>755</v>
+        <v>450</v>
       </c>
       <c r="B9" t="n">
-        <v>325</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>156</v>
+        <v>281</v>
       </c>
       <c r="B10" t="n">
-        <v>250</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>70</v>
+        <v>534</v>
       </c>
       <c r="B11" t="n">
-        <v>90</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="B12" t="n">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>821</v>
+        <v>441</v>
       </c>
       <c r="B13" t="n">
-        <v>550</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>120</v>
+        <v>345</v>
       </c>
       <c r="B14" t="n">
-        <v>316</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>862</v>
+        <v>542</v>
       </c>
       <c r="B15" t="n">
-        <v>198</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>855</v>
+        <v>38</v>
       </c>
       <c r="B16" t="n">
-        <v>341</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>886</v>
+        <v>775</v>
       </c>
       <c r="B17" t="n">
-        <v>474</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>317</v>
+        <v>678</v>
       </c>
       <c r="B18" t="n">
-        <v>363</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20</v>
+        <v>976</v>
       </c>
       <c r="B19" t="n">
-        <v>387</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>883</v>
+        <v>816</v>
       </c>
       <c r="B20" t="n">
-        <v>151</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>55</v>
+        <v>812</v>
       </c>
       <c r="B21" t="n">
-        <v>451</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
